--- a/Knowledge Base.xlsx
+++ b/Knowledge Base.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="27">
   <si>
     <t>Severity</t>
   </si>
@@ -80,9 +80,6 @@
     <t>Symptoms (SB = Difficultybreathing)</t>
   </si>
   <si>
-    <t>0-9,10-30</t>
-  </si>
-  <si>
     <t>10-30,</t>
   </si>
   <si>
@@ -99,6 +96,15 @@
   </si>
   <si>
     <t>60,</t>
+  </si>
+  <si>
+    <t>0-9,10-30,30-59</t>
+  </si>
+  <si>
+    <t>0-9,10-30,30-59,60.</t>
+  </si>
+  <si>
+    <t>30-59, 60</t>
   </si>
 </sst>
 </file>
@@ -474,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,7 +571,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
@@ -597,16 +603,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
@@ -615,59 +621,77 @@
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J4" t="s">
         <v>15</v>
       </c>
       <c r="K4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="4" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" t="s">
-        <v>13</v>
-      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="4" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>19</v>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" t="s">
+        <v>15</v>
       </c>
       <c r="K7" t="s">
         <v>13</v>
@@ -677,8 +701,29 @@
       <c r="A8" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>20</v>
+      <c r="B8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" t="s">
+        <v>13</v>
       </c>
       <c r="K8" t="s">
         <v>13</v>
@@ -688,14 +733,17 @@
       <c r="A9" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="2">
-        <v>60</v>
+      <c r="B9" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
@@ -707,7 +755,7 @@
         <v>13</v>
       </c>
       <c r="J9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K9" t="s">
         <v>13</v>
@@ -717,14 +765,14 @@
       <c r="A10" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="2">
-        <v>60</v>
+      <c r="B10" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -739,7 +787,7 @@
         <v>14</v>
       </c>
       <c r="J10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K10" t="s">
         <v>13</v>
@@ -753,10 +801,10 @@
         <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
@@ -765,10 +813,10 @@
         <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J11" t="s">
         <v>13</v>
@@ -777,132 +825,132 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="4" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="5"/>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="B13" s="2">
+        <v>60</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I13" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="J13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" t="s">
-        <v>21</v>
-      </c>
-      <c r="J14" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="4" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H15" t="s">
         <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J15" t="s">
         <v>15</v>
       </c>
       <c r="K15" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>24</v>
+      <c r="B16" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
         <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K16" t="s">
         <v>14</v>
@@ -912,58 +960,58 @@
       <c r="A17" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>24</v>
+      <c r="B17" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="C17" t="s">
         <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H17" t="s">
         <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K17" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="2">
-        <v>60</v>
+      <c r="B18" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H18" t="s">
         <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="J18" t="s">
         <v>13</v>
@@ -976,31 +1024,159 @@
       <c r="A19" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="2">
         <v>60</v>
       </c>
-      <c r="C19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" t="s">
-        <v>15</v>
-      </c>
-      <c r="J19" t="s">
-        <v>14</v>
-      </c>
-      <c r="K19" t="s">
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" t="s">
+        <v>13</v>
+      </c>
+      <c r="K22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="2">
+        <v>60</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23" t="s">
         <v>13</v>
       </c>
     </row>

--- a/Knowledge Base.xlsx
+++ b/Knowledge Base.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abrah\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abrah\Desktop\CS3520\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="27">
   <si>
     <t>Severity</t>
   </si>
@@ -111,7 +111,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,8 +134,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -150,6 +163,17 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -178,11 +202,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -195,12 +220,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -480,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,7 +555,7 @@
       <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="7"/>
+      <c r="G1" s="6"/>
       <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
@@ -534,393 +569,405 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="C5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="4" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="C10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="11">
         <v>60</v>
       </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="C11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="C12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="8">
         <v>60</v>
       </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="C13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="4" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" t="s">
-        <v>15</v>
-      </c>
-      <c r="K15" t="s">
+      <c r="C15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1052,132 +1099,301 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" t="s">
-        <v>15</v>
-      </c>
-      <c r="J20" t="s">
-        <v>15</v>
-      </c>
-      <c r="K20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="C20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J21" t="s">
-        <v>14</v>
-      </c>
-      <c r="K21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="C21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="8">
         <v>60</v>
       </c>
-      <c r="C22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" t="s">
-        <v>20</v>
-      </c>
-      <c r="J22" t="s">
-        <v>13</v>
-      </c>
-      <c r="K22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="C22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="8">
         <v>60</v>
       </c>
-      <c r="C23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" t="s">
-        <v>14</v>
-      </c>
-      <c r="I23" t="s">
-        <v>15</v>
-      </c>
-      <c r="J23" t="s">
-        <v>14</v>
-      </c>
-      <c r="K23" t="s">
-        <v>13</v>
+      <c r="C23" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="8">
+        <v>60</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="8">
+        <v>60</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="8">
+        <v>60</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="8">
+        <v>60</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="8">
+        <v>60</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Knowledge Base.xlsx
+++ b/Knowledge Base.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abrah\Desktop\CS3520\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\impet\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3690C15E-E751-419D-814A-C7A9E78DE5B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="240"/>
+    <workbookView xWindow="17925" yWindow="3240" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -110,7 +111,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -148,7 +149,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -174,6 +175,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -207,7 +214,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -233,6 +240,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -514,11 +525,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -971,131 +982,131 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" t="s">
-        <v>13</v>
-      </c>
-      <c r="J16" t="s">
-        <v>13</v>
-      </c>
-      <c r="K16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="C16" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" t="s">
-        <v>15</v>
-      </c>
-      <c r="K17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="C17" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" t="s">
-        <v>15</v>
-      </c>
-      <c r="I18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J18" t="s">
-        <v>13</v>
-      </c>
-      <c r="K18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="C18" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" t="s">
-        <v>15</v>
-      </c>
-      <c r="J19" t="s">
-        <v>15</v>
-      </c>
-      <c r="K19" t="s">
+      <c r="C19" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" s="13" t="s">
         <v>15</v>
       </c>
     </row>
